--- a/Code/Results/Cases/Case_5_235/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_235/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019223484061123</v>
+        <v>1.051558125831509</v>
       </c>
       <c r="D2">
-        <v>1.034872359980015</v>
+        <v>1.053748318504431</v>
       </c>
       <c r="E2">
-        <v>1.020612173658884</v>
+        <v>1.048251097400142</v>
       </c>
       <c r="F2">
-        <v>1.02423427908106</v>
+        <v>1.059505324490593</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054959091970617</v>
+        <v>1.049647275507856</v>
       </c>
       <c r="J2">
-        <v>1.040844042213255</v>
+        <v>1.056585365705096</v>
       </c>
       <c r="K2">
-        <v>1.045866339627646</v>
+        <v>1.056493430923028</v>
       </c>
       <c r="L2">
-        <v>1.031791626912463</v>
+        <v>1.051011464325532</v>
       </c>
       <c r="M2">
-        <v>1.035366008601607</v>
+        <v>1.062234645293642</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026639756584846</v>
+        <v>1.05294731746347</v>
       </c>
       <c r="D3">
-        <v>1.040833675469866</v>
+        <v>1.054866382000574</v>
       </c>
       <c r="E3">
-        <v>1.027063048231426</v>
+        <v>1.049473553825967</v>
       </c>
       <c r="F3">
-        <v>1.032205493681678</v>
+        <v>1.061085512210101</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058406623182974</v>
+        <v>1.050193171645195</v>
       </c>
       <c r="J3">
-        <v>1.046429630711404</v>
+        <v>1.057622546760413</v>
       </c>
       <c r="K3">
-        <v>1.050969438408867</v>
+        <v>1.057423820220613</v>
       </c>
       <c r="L3">
-        <v>1.037360977476376</v>
+        <v>1.052044866240878</v>
       </c>
       <c r="M3">
-        <v>1.042442237238878</v>
+        <v>1.063627139126467</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031284225787133</v>
+        <v>1.053844158736299</v>
       </c>
       <c r="D4">
-        <v>1.044569086801058</v>
+        <v>1.055588056272541</v>
       </c>
       <c r="E4">
-        <v>1.031102107496484</v>
+        <v>1.050262215559527</v>
       </c>
       <c r="F4">
-        <v>1.03720407989416</v>
+        <v>1.062106466013311</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060552684463126</v>
+        <v>1.05054404292949</v>
       </c>
       <c r="J4">
-        <v>1.049920174045481</v>
+        <v>1.058291167769236</v>
       </c>
       <c r="K4">
-        <v>1.054157789630627</v>
+        <v>1.058023473583255</v>
       </c>
       <c r="L4">
-        <v>1.040839107531246</v>
+        <v>1.052710639686535</v>
       </c>
       <c r="M4">
-        <v>1.046873299164472</v>
+        <v>1.064526154751454</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033201940476342</v>
+        <v>1.054220705838855</v>
       </c>
       <c r="D5">
-        <v>1.046111875076088</v>
+        <v>1.055891025821861</v>
       </c>
       <c r="E5">
-        <v>1.032769585503493</v>
+        <v>1.050593213435465</v>
       </c>
       <c r="F5">
-        <v>1.039269606661387</v>
+        <v>1.062535316866566</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061435648292893</v>
+        <v>1.050690987816082</v>
       </c>
       <c r="J5">
-        <v>1.051359600676437</v>
+        <v>1.058571662584957</v>
       </c>
       <c r="K5">
-        <v>1.055472422777272</v>
+        <v>1.058275005659777</v>
       </c>
       <c r="L5">
-        <v>1.042272864346258</v>
+        <v>1.052989841421938</v>
       </c>
       <c r="M5">
-        <v>1.048702789816592</v>
+        <v>1.064903625239757</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.033521949848205</v>
+        <v>1.054283901543088</v>
       </c>
       <c r="D6">
-        <v>1.046369343227057</v>
+        <v>1.055941871140526</v>
       </c>
       <c r="E6">
-        <v>1.033047820729898</v>
+        <v>1.050648757059593</v>
       </c>
       <c r="F6">
-        <v>1.039614375814348</v>
+        <v>1.062607302070337</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061582802143931</v>
+        <v>1.050715627692171</v>
       </c>
       <c r="J6">
-        <v>1.051599689331902</v>
+        <v>1.05861872427532</v>
       </c>
       <c r="K6">
-        <v>1.055691685812066</v>
+        <v>1.058317206189721</v>
       </c>
       <c r="L6">
-        <v>1.042511974700938</v>
+        <v>1.053036680380432</v>
       </c>
       <c r="M6">
-        <v>1.049008070929826</v>
+        <v>1.064966976537436</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031309984524523</v>
+        <v>1.053849192072978</v>
       </c>
       <c r="D7">
-        <v>1.044589807943523</v>
+        <v>1.055592106218937</v>
       </c>
       <c r="E7">
-        <v>1.031124506169792</v>
+        <v>1.05026664054359</v>
       </c>
       <c r="F7">
-        <v>1.037231817700533</v>
+        <v>1.062112197735512</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060564556960185</v>
+        <v>1.050546008615753</v>
       </c>
       <c r="J7">
-        <v>1.049939515713374</v>
+        <v>1.058294918079008</v>
       </c>
       <c r="K7">
-        <v>1.054175455155005</v>
+        <v>1.058026836769609</v>
       </c>
       <c r="L7">
-        <v>1.040858375205154</v>
+        <v>1.052714373094771</v>
       </c>
       <c r="M7">
-        <v>1.04689787330151</v>
+        <v>1.064531200389617</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021763154472888</v>
+        <v>1.052028040645141</v>
       </c>
       <c r="D8">
-        <v>1.036913287619619</v>
+        <v>1.054126546829945</v>
       </c>
       <c r="E8">
-        <v>1.022821381818997</v>
+        <v>1.04866472288984</v>
       </c>
       <c r="F8">
-        <v>1.026962606033723</v>
+        <v>1.060039679217146</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05614240122859</v>
+        <v>1.049832254490903</v>
       </c>
       <c r="J8">
-        <v>1.042758352867313</v>
+        <v>1.056936408167731</v>
       </c>
       <c r="K8">
-        <v>1.047615423967595</v>
+        <v>1.056808354454157</v>
       </c>
       <c r="L8">
-        <v>1.033700847615672</v>
+        <v>1.051361313085015</v>
       </c>
       <c r="M8">
-        <v>1.03778932926228</v>
+        <v>1.062705668486252</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003651106728479</v>
+        <v>1.0488028187749</v>
       </c>
       <c r="D9">
-        <v>1.022371060615646</v>
+        <v>1.051530099403937</v>
       </c>
       <c r="E9">
-        <v>1.007065439637891</v>
+        <v>1.045823635147013</v>
       </c>
       <c r="F9">
-        <v>1.007532960994943</v>
+        <v>1.056375490799912</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047648809355018</v>
+        <v>1.048556291757873</v>
       </c>
       <c r="J9">
-        <v>1.029075590537889</v>
+        <v>1.054523083058827</v>
       </c>
       <c r="K9">
-        <v>1.035111318210476</v>
+        <v>1.054642834580095</v>
       </c>
       <c r="L9">
-        <v>1.020044915743471</v>
+        <v>1.048954496490033</v>
       </c>
       <c r="M9">
-        <v>1.020504992114078</v>
+        <v>1.059473002969653</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9905388082309455</v>
+        <v>1.046641335068542</v>
       </c>
       <c r="D10">
-        <v>1.011864601785731</v>
+        <v>1.049789401259322</v>
       </c>
       <c r="E10">
-        <v>0.9956618490211591</v>
+        <v>1.043916832333014</v>
       </c>
       <c r="F10">
-        <v>0.9935015345945826</v>
+        <v>1.053923966951429</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041431691658491</v>
+        <v>1.047693160610111</v>
       </c>
       <c r="J10">
-        <v>1.019132898413723</v>
+        <v>1.052900729974029</v>
       </c>
       <c r="K10">
-        <v>1.026022891303304</v>
+        <v>1.053186444732701</v>
       </c>
       <c r="L10">
-        <v>1.01010987438398</v>
+        <v>1.047334381436358</v>
       </c>
       <c r="M10">
-        <v>1.007989120558881</v>
+        <v>1.057306724343322</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9845693474678836</v>
+        <v>1.045702588659877</v>
       </c>
       <c r="D11">
-        <v>1.007088319586974</v>
+        <v>1.049033270768514</v>
       </c>
       <c r="E11">
-        <v>0.9904724116399241</v>
+        <v>1.043088044765381</v>
       </c>
       <c r="F11">
-        <v>0.9871215075712845</v>
+        <v>1.052860232595178</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038585841472204</v>
+        <v>1.047316401768258</v>
       </c>
       <c r="J11">
-        <v>1.014598453678227</v>
+        <v>1.052194951347476</v>
       </c>
       <c r="K11">
-        <v>1.021877787266201</v>
+        <v>1.052552720887712</v>
       </c>
       <c r="L11">
-        <v>1.00557626915432</v>
+        <v>1.046629069129724</v>
       </c>
       <c r="M11">
-        <v>1.002290449870114</v>
+        <v>1.056365937556086</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9823036170837161</v>
+        <v>1.045353464631603</v>
       </c>
       <c r="D12">
-        <v>1.005276664406922</v>
+        <v>1.048752043138157</v>
       </c>
       <c r="E12">
-        <v>0.9885032002717067</v>
+        <v>1.042779717460563</v>
       </c>
       <c r="F12">
-        <v>0.9847010873156954</v>
+        <v>1.05246477153917</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037503435717036</v>
+        <v>1.047175998949095</v>
       </c>
       <c r="J12">
-        <v>1.012876272394831</v>
+        <v>1.051932292012034</v>
       </c>
       <c r="K12">
-        <v>1.020303465304224</v>
+        <v>1.052316855613463</v>
       </c>
       <c r="L12">
-        <v>1.003854025918962</v>
+        <v>1.046366507086502</v>
       </c>
       <c r="M12">
-        <v>1.000127379400174</v>
+        <v>1.056016060701022</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9827918953351802</v>
+        <v>1.045428372617767</v>
       </c>
       <c r="D13">
-        <v>1.005667029692198</v>
+        <v>1.048812384144973</v>
       </c>
       <c r="E13">
-        <v>0.9889275538165774</v>
+        <v>1.042845876514343</v>
       </c>
       <c r="F13">
-        <v>0.9852226513645038</v>
+        <v>1.052549614965606</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03773680095412</v>
+        <v>1.047206136619745</v>
       </c>
       <c r="J13">
-        <v>1.013247461569782</v>
+        <v>1.051988656157945</v>
       </c>
       <c r="K13">
-        <v>1.020642785826787</v>
+        <v>1.052367470983133</v>
       </c>
       <c r="L13">
-        <v>1.004225245312614</v>
+        <v>1.04642285380463</v>
       </c>
       <c r="M13">
-        <v>1.000593539389196</v>
+        <v>1.056091129947336</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9843830778435345</v>
+        <v>1.045673738824016</v>
       </c>
       <c r="D14">
-        <v>1.006939354911593</v>
+        <v>1.049010031934424</v>
       </c>
       <c r="E14">
-        <v>0.9903105092062137</v>
+        <v>1.043062568149238</v>
       </c>
       <c r="F14">
-        <v>0.9869224977497327</v>
+        <v>1.052827550716798</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038496900227043</v>
+        <v>1.047304805392709</v>
       </c>
       <c r="J14">
-        <v>1.014456892285199</v>
+        <v>1.052173250124122</v>
       </c>
       <c r="K14">
-        <v>1.021748379834379</v>
+        <v>1.05253323385845</v>
       </c>
       <c r="L14">
-        <v>1.005434710271501</v>
+        <v>1.046607377499547</v>
       </c>
       <c r="M14">
-        <v>1.002112622573728</v>
+        <v>1.056337025389986</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9853568951997319</v>
+        <v>1.045824859530915</v>
       </c>
       <c r="D15">
-        <v>1.007718191817657</v>
+        <v>1.049131760405309</v>
       </c>
       <c r="E15">
-        <v>0.9911569544015385</v>
+        <v>1.04319601532777</v>
       </c>
       <c r="F15">
-        <v>0.9879629669380585</v>
+        <v>1.052998750358127</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038961793922699</v>
+        <v>1.047365537681034</v>
       </c>
       <c r="J15">
-        <v>1.015196930251657</v>
+        <v>1.05228691784696</v>
       </c>
       <c r="K15">
-        <v>1.022424880420204</v>
+        <v>1.052635303088834</v>
       </c>
       <c r="L15">
-        <v>1.006174719771948</v>
+        <v>1.046720991854295</v>
       </c>
       <c r="M15">
-        <v>1.003042298543845</v>
+        <v>1.056488472837697</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9909284593455863</v>
+        <v>1.046703576553772</v>
       </c>
       <c r="D16">
-        <v>1.012176524534906</v>
+        <v>1.049839532056078</v>
       </c>
       <c r="E16">
-        <v>0.9960006399020095</v>
+        <v>1.043971769574212</v>
       </c>
       <c r="F16">
-        <v>0.9939181443173875</v>
+        <v>1.053994516035382</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041617138403669</v>
+        <v>1.047718100899351</v>
       </c>
       <c r="J16">
-        <v>1.019428722212506</v>
+        <v>1.052947500234684</v>
       </c>
       <c r="K16">
-        <v>1.026293311679226</v>
+        <v>1.053228437070133</v>
       </c>
       <c r="L16">
-        <v>1.010405590131249</v>
+        <v>1.047381110123394</v>
       </c>
       <c r="M16">
-        <v>1.008361080207273</v>
+        <v>1.057369101969378</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9943422176037447</v>
+        <v>1.047254013476258</v>
       </c>
       <c r="D17">
-        <v>1.014910088671311</v>
+        <v>1.050282851910469</v>
       </c>
       <c r="E17">
-        <v>0.9989690619030037</v>
+        <v>1.044457535885567</v>
       </c>
       <c r="F17">
-        <v>0.9975689700625703</v>
+        <v>1.054618534580412</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043240117311943</v>
+        <v>1.04793844350444</v>
       </c>
       <c r="J17">
-        <v>1.022019565798968</v>
+        <v>1.053360980209706</v>
       </c>
       <c r="K17">
-        <v>1.028661644794297</v>
+        <v>1.053599660387693</v>
       </c>
       <c r="L17">
-        <v>1.012995191376555</v>
+        <v>1.0477941640935</v>
       </c>
       <c r="M17">
-        <v>1.011619758727571</v>
+        <v>1.057920747676792</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9963055973953583</v>
+        <v>1.047574803584363</v>
       </c>
       <c r="D18">
-        <v>1.016482892986736</v>
+        <v>1.050541202111872</v>
       </c>
       <c r="E18">
-        <v>1.000676501043383</v>
+        <v>1.044740573799724</v>
       </c>
       <c r="F18">
-        <v>0.999669436186265</v>
+        <v>1.054982301712596</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044172100307351</v>
+        <v>1.048066674792103</v>
       </c>
       <c r="J18">
-        <v>1.023508905036942</v>
+        <v>1.053601839255904</v>
       </c>
       <c r="K18">
-        <v>1.030023048974475</v>
+        <v>1.053815890265078</v>
       </c>
       <c r="L18">
-        <v>1.014483567406637</v>
+        <v>1.048034726175004</v>
       </c>
       <c r="M18">
-        <v>1.013493878032745</v>
+        <v>1.058242246330083</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9969704708509401</v>
+        <v>1.04768413914225</v>
       </c>
       <c r="D19">
-        <v>1.017015605147351</v>
+        <v>1.050629253922889</v>
       </c>
       <c r="E19">
-        <v>1.001254731693301</v>
+        <v>1.044837031556053</v>
       </c>
       <c r="F19">
-        <v>1.000380858778958</v>
+        <v>1.055106301220021</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044487456049395</v>
+        <v>1.04811034915324</v>
       </c>
       <c r="J19">
-        <v>1.024013121009181</v>
+        <v>1.053683912455191</v>
       </c>
       <c r="K19">
-        <v>1.03048394746678</v>
+        <v>1.053889568651643</v>
       </c>
       <c r="L19">
-        <v>1.014987414577629</v>
+        <v>1.048116689905063</v>
       </c>
       <c r="M19">
-        <v>1.014128513191058</v>
+        <v>1.05835182408392</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9939788608753553</v>
+        <v>1.047194984846377</v>
       </c>
       <c r="D20">
-        <v>1.014619064460916</v>
+        <v>1.050235311806029</v>
       </c>
       <c r="E20">
-        <v>0.9986530857193114</v>
+        <v>1.044405448990245</v>
       </c>
       <c r="F20">
-        <v>0.997180303438121</v>
+        <v>1.054551605337648</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043067519803626</v>
+        <v>1.047914832942193</v>
       </c>
       <c r="J20">
-        <v>1.021743876843046</v>
+        <v>1.053316650547438</v>
       </c>
       <c r="K20">
-        <v>1.02840963542642</v>
+        <v>1.053559862552458</v>
       </c>
       <c r="L20">
-        <v>1.012719660409989</v>
+        <v>1.047749885155167</v>
       </c>
       <c r="M20">
-        <v>1.011272915678989</v>
+        <v>1.05786158899798</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9839158906606873</v>
+        <v>1.045601496590286</v>
       </c>
       <c r="D21">
-        <v>1.006565753036439</v>
+        <v>1.048951839777125</v>
       </c>
       <c r="E21">
-        <v>0.9899044458129863</v>
+        <v>1.042998771147156</v>
       </c>
       <c r="F21">
-        <v>0.9864233747792404</v>
+        <v>1.0527457151157</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038273788671615</v>
+        <v>1.047275762572354</v>
       </c>
       <c r="J21">
-        <v>1.014101821212765</v>
+        <v>1.052118905713412</v>
       </c>
       <c r="K21">
-        <v>1.021423793806854</v>
+        <v>1.052484433907159</v>
       </c>
       <c r="L21">
-        <v>1.005079639441958</v>
+        <v>1.046553055880829</v>
       </c>
       <c r="M21">
-        <v>1.001666607837171</v>
+        <v>1.056264627172255</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9773060454798502</v>
+        <v>1.04459710407348</v>
       </c>
       <c r="D22">
-        <v>1.001283080921471</v>
+        <v>1.048142742522504</v>
       </c>
       <c r="E22">
-        <v>0.9841606857147713</v>
+        <v>1.042111563055202</v>
       </c>
       <c r="F22">
-        <v>0.9793643699471033</v>
+        <v>1.051608291689326</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035111873407138</v>
+        <v>1.046871302666645</v>
       </c>
       <c r="J22">
-        <v>1.009075655806949</v>
+        <v>1.051362929342584</v>
       </c>
       <c r="K22">
-        <v>1.016829162508775</v>
+        <v>1.051805534915628</v>
       </c>
       <c r="L22">
-        <v>1.000052591115843</v>
+        <v>1.045797215718906</v>
       </c>
       <c r="M22">
-        <v>0.9953560143992599</v>
+        <v>1.055258079800747</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9808385736366679</v>
+        <v>1.04512979208108</v>
       </c>
       <c r="D23">
-        <v>1.004105591916494</v>
+        <v>1.048571864304035</v>
       </c>
       <c r="E23">
-        <v>0.9872300372684572</v>
+        <v>1.042582154657735</v>
       </c>
       <c r="F23">
-        <v>0.9831363360777275</v>
+        <v>1.052211453548913</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03680291587954</v>
+        <v>1.047085967307329</v>
       </c>
       <c r="J23">
-        <v>1.011762389365036</v>
+        <v>1.05176396478807</v>
       </c>
       <c r="K23">
-        <v>1.01928521567942</v>
+        <v>1.052165693539449</v>
       </c>
       <c r="L23">
-        <v>1.002739997895358</v>
+        <v>1.046198220740169</v>
       </c>
       <c r="M23">
-        <v>0.9987286818673774</v>
+        <v>1.055791907487089</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9941431317359657</v>
+        <v>1.047221658179144</v>
       </c>
       <c r="D24">
-        <v>1.014750632386269</v>
+        <v>1.050256793846135</v>
       </c>
       <c r="E24">
-        <v>0.9987959356128903</v>
+        <v>1.044428985747514</v>
       </c>
       <c r="F24">
-        <v>0.9973560144104032</v>
+        <v>1.054581848437736</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043145554368006</v>
+        <v>1.047925502437678</v>
       </c>
       <c r="J24">
-        <v>1.021868516101395</v>
+        <v>1.053336682192775</v>
       </c>
       <c r="K24">
-        <v>1.028523569200125</v>
+        <v>1.053577846403301</v>
       </c>
       <c r="L24">
-        <v>1.012844229016771</v>
+        <v>1.047769894030337</v>
       </c>
       <c r="M24">
-        <v>1.011429721040278</v>
+        <v>1.05788832108348</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008502574907801</v>
+        <v>1.049638577237199</v>
       </c>
       <c r="D25">
-        <v>1.02626320384723</v>
+        <v>1.052203032421536</v>
       </c>
       <c r="E25">
-        <v>1.011285707683965</v>
+        <v>1.04656033839806</v>
       </c>
       <c r="F25">
-        <v>1.012731365254691</v>
+        <v>1.05732426862</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049935647129662</v>
+        <v>1.048888343203396</v>
       </c>
       <c r="J25">
-        <v>1.032747142949373</v>
+        <v>1.055149330934432</v>
       </c>
       <c r="K25">
-        <v>1.038467052424473</v>
+        <v>1.055204888483482</v>
       </c>
       <c r="L25">
-        <v>1.023711317814171</v>
+        <v>1.049579430592632</v>
       </c>
       <c r="M25">
-        <v>1.025135206469378</v>
+        <v>1.060310654973627</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_235/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_235/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051558125831509</v>
+        <v>1.019223484061121</v>
       </c>
       <c r="D2">
-        <v>1.053748318504431</v>
+        <v>1.034872359980014</v>
       </c>
       <c r="E2">
-        <v>1.048251097400142</v>
+        <v>1.020612173658883</v>
       </c>
       <c r="F2">
-        <v>1.059505324490593</v>
+        <v>1.024234279081058</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049647275507856</v>
+        <v>1.054959091970615</v>
       </c>
       <c r="J2">
-        <v>1.056585365705096</v>
+        <v>1.040844042213253</v>
       </c>
       <c r="K2">
-        <v>1.056493430923028</v>
+        <v>1.045866339627644</v>
       </c>
       <c r="L2">
-        <v>1.051011464325532</v>
+        <v>1.031791626912462</v>
       </c>
       <c r="M2">
-        <v>1.062234645293642</v>
+        <v>1.035366008601606</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05294731746347</v>
+        <v>1.026639756584844</v>
       </c>
       <c r="D3">
-        <v>1.054866382000574</v>
+        <v>1.040833675469864</v>
       </c>
       <c r="E3">
-        <v>1.049473553825967</v>
+        <v>1.027063048231424</v>
       </c>
       <c r="F3">
-        <v>1.061085512210101</v>
+        <v>1.032205493681676</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050193171645195</v>
+        <v>1.058406623182973</v>
       </c>
       <c r="J3">
-        <v>1.057622546760413</v>
+        <v>1.046429630711402</v>
       </c>
       <c r="K3">
-        <v>1.057423820220613</v>
+        <v>1.050969438408864</v>
       </c>
       <c r="L3">
-        <v>1.052044866240878</v>
+        <v>1.037360977476374</v>
       </c>
       <c r="M3">
-        <v>1.063627139126467</v>
+        <v>1.042442237238875</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053844158736299</v>
+        <v>1.031284225787133</v>
       </c>
       <c r="D4">
-        <v>1.055588056272541</v>
+        <v>1.044569086801059</v>
       </c>
       <c r="E4">
-        <v>1.050262215559527</v>
+        <v>1.031102107496484</v>
       </c>
       <c r="F4">
-        <v>1.062106466013311</v>
+        <v>1.037204079894161</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05054404292949</v>
+        <v>1.060552684463127</v>
       </c>
       <c r="J4">
-        <v>1.058291167769236</v>
+        <v>1.049920174045482</v>
       </c>
       <c r="K4">
-        <v>1.058023473583255</v>
+        <v>1.054157789630628</v>
       </c>
       <c r="L4">
-        <v>1.052710639686535</v>
+        <v>1.040839107531247</v>
       </c>
       <c r="M4">
-        <v>1.064526154751454</v>
+        <v>1.046873299164473</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054220705838855</v>
+        <v>1.033201940476341</v>
       </c>
       <c r="D5">
-        <v>1.055891025821861</v>
+        <v>1.046111875076086</v>
       </c>
       <c r="E5">
-        <v>1.050593213435465</v>
+        <v>1.032769585503491</v>
       </c>
       <c r="F5">
-        <v>1.062535316866566</v>
+        <v>1.039269606661386</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050690987816082</v>
+        <v>1.061435648292892</v>
       </c>
       <c r="J5">
-        <v>1.058571662584957</v>
+        <v>1.051359600676435</v>
       </c>
       <c r="K5">
-        <v>1.058275005659777</v>
+        <v>1.05547242277727</v>
       </c>
       <c r="L5">
-        <v>1.052989841421938</v>
+        <v>1.042272864346256</v>
       </c>
       <c r="M5">
-        <v>1.064903625239757</v>
+        <v>1.04870278981659</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054283901543088</v>
+        <v>1.033521949848204</v>
       </c>
       <c r="D6">
-        <v>1.055941871140526</v>
+        <v>1.046369343227056</v>
       </c>
       <c r="E6">
-        <v>1.050648757059593</v>
+        <v>1.033047820729897</v>
       </c>
       <c r="F6">
-        <v>1.062607302070337</v>
+        <v>1.039614375814347</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050715627692171</v>
+        <v>1.06158280214393</v>
       </c>
       <c r="J6">
-        <v>1.05861872427532</v>
+        <v>1.051599689331901</v>
       </c>
       <c r="K6">
-        <v>1.058317206189721</v>
+        <v>1.055691685812065</v>
       </c>
       <c r="L6">
-        <v>1.053036680380432</v>
+        <v>1.042511974700937</v>
       </c>
       <c r="M6">
-        <v>1.064966976537436</v>
+        <v>1.049008070929825</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053849192072978</v>
+        <v>1.031309984524523</v>
       </c>
       <c r="D7">
-        <v>1.055592106218937</v>
+        <v>1.044589807943523</v>
       </c>
       <c r="E7">
-        <v>1.05026664054359</v>
+        <v>1.031124506169792</v>
       </c>
       <c r="F7">
-        <v>1.062112197735512</v>
+        <v>1.037231817700534</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050546008615753</v>
+        <v>1.060564556960185</v>
       </c>
       <c r="J7">
-        <v>1.058294918079008</v>
+        <v>1.049939515713374</v>
       </c>
       <c r="K7">
-        <v>1.058026836769609</v>
+        <v>1.054175455155005</v>
       </c>
       <c r="L7">
-        <v>1.052714373094771</v>
+        <v>1.040858375205154</v>
       </c>
       <c r="M7">
-        <v>1.064531200389617</v>
+        <v>1.04689787330151</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052028040645141</v>
+        <v>1.021763154472889</v>
       </c>
       <c r="D8">
-        <v>1.054126546829945</v>
+        <v>1.03691328761962</v>
       </c>
       <c r="E8">
-        <v>1.04866472288984</v>
+        <v>1.022821381818998</v>
       </c>
       <c r="F8">
-        <v>1.060039679217146</v>
+        <v>1.026962606033724</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049832254490903</v>
+        <v>1.056142401228591</v>
       </c>
       <c r="J8">
-        <v>1.056936408167731</v>
+        <v>1.042758352867314</v>
       </c>
       <c r="K8">
-        <v>1.056808354454157</v>
+        <v>1.047615423967596</v>
       </c>
       <c r="L8">
-        <v>1.051361313085015</v>
+        <v>1.033700847615673</v>
       </c>
       <c r="M8">
-        <v>1.062705668486252</v>
+        <v>1.037789329262282</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0488028187749</v>
+        <v>1.003651106728481</v>
       </c>
       <c r="D9">
-        <v>1.051530099403937</v>
+        <v>1.022371060615648</v>
       </c>
       <c r="E9">
-        <v>1.045823635147013</v>
+        <v>1.007065439637892</v>
       </c>
       <c r="F9">
-        <v>1.056375490799912</v>
+        <v>1.007532960994945</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048556291757873</v>
+        <v>1.047648809355019</v>
       </c>
       <c r="J9">
-        <v>1.054523083058827</v>
+        <v>1.029075590537891</v>
       </c>
       <c r="K9">
-        <v>1.054642834580095</v>
+        <v>1.035111318210478</v>
       </c>
       <c r="L9">
-        <v>1.048954496490033</v>
+        <v>1.020044915743472</v>
       </c>
       <c r="M9">
-        <v>1.059473002969653</v>
+        <v>1.020504992114079</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046641335068542</v>
+        <v>0.9905388082309446</v>
       </c>
       <c r="D10">
-        <v>1.049789401259322</v>
+        <v>1.01186460178573</v>
       </c>
       <c r="E10">
-        <v>1.043916832333014</v>
+        <v>0.9956618490211582</v>
       </c>
       <c r="F10">
-        <v>1.053923966951429</v>
+        <v>0.9935015345945818</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047693160610111</v>
+        <v>1.04143169165849</v>
       </c>
       <c r="J10">
-        <v>1.052900729974029</v>
+        <v>1.019132898413722</v>
       </c>
       <c r="K10">
-        <v>1.053186444732701</v>
+        <v>1.026022891303303</v>
       </c>
       <c r="L10">
-        <v>1.047334381436358</v>
+        <v>1.010109874383979</v>
       </c>
       <c r="M10">
-        <v>1.057306724343322</v>
+        <v>1.00798912055888</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045702588659877</v>
+        <v>0.9845693474678829</v>
       </c>
       <c r="D11">
-        <v>1.049033270768514</v>
+        <v>1.007088319586973</v>
       </c>
       <c r="E11">
-        <v>1.043088044765381</v>
+        <v>0.9904724116399235</v>
       </c>
       <c r="F11">
-        <v>1.052860232595178</v>
+        <v>0.9871215075712841</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047316401768258</v>
+        <v>1.038585841472204</v>
       </c>
       <c r="J11">
-        <v>1.052194951347476</v>
+        <v>1.014598453678226</v>
       </c>
       <c r="K11">
-        <v>1.052552720887712</v>
+        <v>1.021877787266201</v>
       </c>
       <c r="L11">
-        <v>1.046629069129724</v>
+        <v>1.00557626915432</v>
       </c>
       <c r="M11">
-        <v>1.056365937556086</v>
+        <v>1.002290449870114</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045353464631603</v>
+        <v>0.9823036170837151</v>
       </c>
       <c r="D12">
-        <v>1.048752043138157</v>
+        <v>1.005276664406922</v>
       </c>
       <c r="E12">
-        <v>1.042779717460563</v>
+        <v>0.988503200271706</v>
       </c>
       <c r="F12">
-        <v>1.05246477153917</v>
+        <v>0.9847010873156948</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047175998949095</v>
+        <v>1.037503435717036</v>
       </c>
       <c r="J12">
-        <v>1.051932292012034</v>
+        <v>1.012876272394831</v>
       </c>
       <c r="K12">
-        <v>1.052316855613463</v>
+        <v>1.020303465304223</v>
       </c>
       <c r="L12">
-        <v>1.046366507086502</v>
+        <v>1.003854025918961</v>
       </c>
       <c r="M12">
-        <v>1.056016060701022</v>
+        <v>1.000127379400173</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045428372617767</v>
+        <v>0.9827918953351809</v>
       </c>
       <c r="D13">
-        <v>1.048812384144973</v>
+        <v>1.005667029692199</v>
       </c>
       <c r="E13">
-        <v>1.042845876514343</v>
+        <v>0.9889275538165778</v>
       </c>
       <c r="F13">
-        <v>1.052549614965606</v>
+        <v>0.9852226513645049</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047206136619745</v>
+        <v>1.037736800954121</v>
       </c>
       <c r="J13">
-        <v>1.051988656157945</v>
+        <v>1.013247461569782</v>
       </c>
       <c r="K13">
-        <v>1.052367470983133</v>
+        <v>1.020642785826788</v>
       </c>
       <c r="L13">
-        <v>1.04642285380463</v>
+        <v>1.004225245312615</v>
       </c>
       <c r="M13">
-        <v>1.056091129947336</v>
+        <v>1.000593539389197</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045673738824016</v>
+        <v>0.9843830778435354</v>
       </c>
       <c r="D14">
-        <v>1.049010031934424</v>
+        <v>1.006939354911593</v>
       </c>
       <c r="E14">
-        <v>1.043062568149238</v>
+        <v>0.9903105092062147</v>
       </c>
       <c r="F14">
-        <v>1.052827550716798</v>
+        <v>0.9869224977497338</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047304805392709</v>
+        <v>1.038496900227043</v>
       </c>
       <c r="J14">
-        <v>1.052173250124122</v>
+        <v>1.0144568922852</v>
       </c>
       <c r="K14">
-        <v>1.05253323385845</v>
+        <v>1.02174837983438</v>
       </c>
       <c r="L14">
-        <v>1.046607377499547</v>
+        <v>1.005434710271502</v>
       </c>
       <c r="M14">
-        <v>1.056337025389986</v>
+        <v>1.002112622573729</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045824859530915</v>
+        <v>0.9853568951997332</v>
       </c>
       <c r="D15">
-        <v>1.049131760405309</v>
+        <v>1.007718191817659</v>
       </c>
       <c r="E15">
-        <v>1.04319601532777</v>
+        <v>0.9911569544015393</v>
       </c>
       <c r="F15">
-        <v>1.052998750358127</v>
+        <v>0.9879629669380593</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047365537681034</v>
+        <v>1.0389617939227</v>
       </c>
       <c r="J15">
-        <v>1.05228691784696</v>
+        <v>1.015196930251658</v>
       </c>
       <c r="K15">
-        <v>1.052635303088834</v>
+        <v>1.022424880420206</v>
       </c>
       <c r="L15">
-        <v>1.046720991854295</v>
+        <v>1.006174719771949</v>
       </c>
       <c r="M15">
-        <v>1.056488472837697</v>
+        <v>1.003042298543846</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046703576553772</v>
+        <v>0.9909284593455897</v>
       </c>
       <c r="D16">
-        <v>1.049839532056078</v>
+        <v>1.01217652453491</v>
       </c>
       <c r="E16">
-        <v>1.043971769574212</v>
+        <v>0.9960006399020128</v>
       </c>
       <c r="F16">
-        <v>1.053994516035382</v>
+        <v>0.9939181443173908</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047718100899351</v>
+        <v>1.041617138403671</v>
       </c>
       <c r="J16">
-        <v>1.052947500234684</v>
+        <v>1.01942872221251</v>
       </c>
       <c r="K16">
-        <v>1.053228437070133</v>
+        <v>1.026293311679229</v>
       </c>
       <c r="L16">
-        <v>1.047381110123394</v>
+        <v>1.010405590131253</v>
       </c>
       <c r="M16">
-        <v>1.057369101969378</v>
+        <v>1.008361080207276</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.047254013476258</v>
+        <v>0.994342217603744</v>
       </c>
       <c r="D17">
-        <v>1.050282851910469</v>
+        <v>1.014910088671311</v>
       </c>
       <c r="E17">
-        <v>1.044457535885567</v>
+        <v>0.9989690619030033</v>
       </c>
       <c r="F17">
-        <v>1.054618534580412</v>
+        <v>0.9975689700625699</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04793844350444</v>
+        <v>1.043240117311943</v>
       </c>
       <c r="J17">
-        <v>1.053360980209706</v>
+        <v>1.022019565798967</v>
       </c>
       <c r="K17">
-        <v>1.053599660387693</v>
+        <v>1.028661644794297</v>
       </c>
       <c r="L17">
-        <v>1.0477941640935</v>
+        <v>1.012995191376554</v>
       </c>
       <c r="M17">
-        <v>1.057920747676792</v>
+        <v>1.01161975872757</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047574803584363</v>
+        <v>0.9963055973953587</v>
       </c>
       <c r="D18">
-        <v>1.050541202111872</v>
+        <v>1.016482892986736</v>
       </c>
       <c r="E18">
-        <v>1.044740573799724</v>
+        <v>1.000676501043384</v>
       </c>
       <c r="F18">
-        <v>1.054982301712596</v>
+        <v>0.9996694361862652</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048066674792103</v>
+        <v>1.044172100307351</v>
       </c>
       <c r="J18">
-        <v>1.053601839255904</v>
+        <v>1.023508905036943</v>
       </c>
       <c r="K18">
-        <v>1.053815890265078</v>
+        <v>1.030023048974475</v>
       </c>
       <c r="L18">
-        <v>1.048034726175004</v>
+        <v>1.014483567406638</v>
       </c>
       <c r="M18">
-        <v>1.058242246330083</v>
+        <v>1.013493878032745</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04768413914225</v>
+        <v>0.9969704708509373</v>
       </c>
       <c r="D19">
-        <v>1.050629253922889</v>
+        <v>1.017015605147348</v>
       </c>
       <c r="E19">
-        <v>1.044837031556053</v>
+        <v>1.001254731693298</v>
       </c>
       <c r="F19">
-        <v>1.055106301220021</v>
+        <v>1.000380858778954</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04811034915324</v>
+        <v>1.044487456049393</v>
       </c>
       <c r="J19">
-        <v>1.053683912455191</v>
+        <v>1.024013121009177</v>
       </c>
       <c r="K19">
-        <v>1.053889568651643</v>
+        <v>1.030483947466777</v>
       </c>
       <c r="L19">
-        <v>1.048116689905063</v>
+        <v>1.014987414577626</v>
       </c>
       <c r="M19">
-        <v>1.05835182408392</v>
+        <v>1.014128513191055</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047194984846377</v>
+        <v>0.9939788608753564</v>
       </c>
       <c r="D20">
-        <v>1.050235311806029</v>
+        <v>1.014619064460917</v>
       </c>
       <c r="E20">
-        <v>1.044405448990245</v>
+        <v>0.9986530857193117</v>
       </c>
       <c r="F20">
-        <v>1.054551605337648</v>
+        <v>0.9971803034381218</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047914832942193</v>
+        <v>1.043067519803627</v>
       </c>
       <c r="J20">
-        <v>1.053316650547438</v>
+        <v>1.021743876843046</v>
       </c>
       <c r="K20">
-        <v>1.053559862552458</v>
+        <v>1.02840963542642</v>
       </c>
       <c r="L20">
-        <v>1.047749885155167</v>
+        <v>1.01271966040999</v>
       </c>
       <c r="M20">
-        <v>1.05786158899798</v>
+        <v>1.01127291567899</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045601496590286</v>
+        <v>0.9839158906606855</v>
       </c>
       <c r="D21">
-        <v>1.048951839777125</v>
+        <v>1.006565753036437</v>
       </c>
       <c r="E21">
-        <v>1.042998771147156</v>
+        <v>0.9899044458129852</v>
       </c>
       <c r="F21">
-        <v>1.0527457151157</v>
+        <v>0.9864233747792387</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047275762572354</v>
+        <v>1.038273788671614</v>
       </c>
       <c r="J21">
-        <v>1.052118905713412</v>
+        <v>1.014101821212764</v>
       </c>
       <c r="K21">
-        <v>1.052484433907159</v>
+        <v>1.021423793806852</v>
       </c>
       <c r="L21">
-        <v>1.046553055880829</v>
+        <v>1.005079639441957</v>
       </c>
       <c r="M21">
-        <v>1.056264627172255</v>
+        <v>1.001666607837169</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04459710407348</v>
+        <v>0.9773060454798501</v>
       </c>
       <c r="D22">
-        <v>1.048142742522504</v>
+        <v>1.001283080921471</v>
       </c>
       <c r="E22">
-        <v>1.042111563055202</v>
+        <v>0.9841606857147711</v>
       </c>
       <c r="F22">
-        <v>1.051608291689326</v>
+        <v>0.9793643699471034</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046871302666645</v>
+        <v>1.035111873407138</v>
       </c>
       <c r="J22">
-        <v>1.051362929342584</v>
+        <v>1.009075655806949</v>
       </c>
       <c r="K22">
-        <v>1.051805534915628</v>
+        <v>1.016829162508775</v>
       </c>
       <c r="L22">
-        <v>1.045797215718906</v>
+        <v>1.000052591115843</v>
       </c>
       <c r="M22">
-        <v>1.055258079800747</v>
+        <v>0.9953560143992601</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04512979208108</v>
+        <v>0.9808385736366712</v>
       </c>
       <c r="D23">
-        <v>1.048571864304035</v>
+        <v>1.004105591916497</v>
       </c>
       <c r="E23">
-        <v>1.042582154657735</v>
+        <v>0.9872300372684597</v>
       </c>
       <c r="F23">
-        <v>1.052211453548913</v>
+        <v>0.9831363360777309</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047085967307329</v>
+        <v>1.036802915879542</v>
       </c>
       <c r="J23">
-        <v>1.05176396478807</v>
+        <v>1.011762389365039</v>
       </c>
       <c r="K23">
-        <v>1.052165693539449</v>
+        <v>1.019285215679423</v>
       </c>
       <c r="L23">
-        <v>1.046198220740169</v>
+        <v>1.002739997895361</v>
       </c>
       <c r="M23">
-        <v>1.055791907487089</v>
+        <v>0.9987286818673803</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047221658179144</v>
+        <v>0.9941431317359665</v>
       </c>
       <c r="D24">
-        <v>1.050256793846135</v>
+        <v>1.014750632386269</v>
       </c>
       <c r="E24">
-        <v>1.044428985747514</v>
+        <v>0.9987959356128907</v>
       </c>
       <c r="F24">
-        <v>1.054581848437736</v>
+        <v>0.9973560144104039</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047925502437678</v>
+        <v>1.043145554368007</v>
       </c>
       <c r="J24">
-        <v>1.053336682192775</v>
+        <v>1.021868516101396</v>
       </c>
       <c r="K24">
-        <v>1.053577846403301</v>
+        <v>1.028523569200126</v>
       </c>
       <c r="L24">
-        <v>1.047769894030337</v>
+        <v>1.012844229016771</v>
       </c>
       <c r="M24">
-        <v>1.05788832108348</v>
+        <v>1.011429721040278</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.049638577237199</v>
+        <v>1.0085025749078</v>
       </c>
       <c r="D25">
-        <v>1.052203032421536</v>
+        <v>1.026263203847229</v>
       </c>
       <c r="E25">
-        <v>1.04656033839806</v>
+        <v>1.011285707683965</v>
       </c>
       <c r="F25">
-        <v>1.05732426862</v>
+        <v>1.012731365254691</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048888343203396</v>
+        <v>1.049935647129661</v>
       </c>
       <c r="J25">
-        <v>1.055149330934432</v>
+        <v>1.032747142949373</v>
       </c>
       <c r="K25">
-        <v>1.055204888483482</v>
+        <v>1.038467052424472</v>
       </c>
       <c r="L25">
-        <v>1.049579430592632</v>
+        <v>1.023711317814171</v>
       </c>
       <c r="M25">
-        <v>1.060310654973627</v>
+        <v>1.025135206469378</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
